--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="774" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="774" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="118">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1285,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1411,6 +1411,27 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -1427,9 +1448,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,6 +1472,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
@@ -1488,18 +1518,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1540,19 +1558,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,22 +1615,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,21 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1688,7 +1691,7 @@
         <xdr:cNvPr id="15" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1712,7 @@
           <xdr:cNvPr id="16" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1762,7 +1765,7 @@
           <xdr:cNvPr id="17" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1843,7 +1846,7 @@
         <xdr:cNvPr id="6145" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2098,7 @@
         <xdr:cNvPr id="6146" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B602551C-237D-48D4-B115-7641580BEBA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B602551C-237D-48D4-B115-7641580BEBA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2306,7 @@
         <xdr:cNvPr id="6147" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6059F3AD-1C18-490E-927B-BA832C83DF12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059F3AD-1C18-490E-927B-BA832C83DF12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2439,7 @@
         <xdr:cNvPr id="6148" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2493,7 @@
         <xdr:cNvPr id="6149" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2547,7 @@
         <xdr:cNvPr id="6150" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC234996-C0F7-48DB-A990-AF2F514DB078}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC234996-C0F7-48DB-A990-AF2F514DB078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2685,7 @@
         <xdr:cNvPr id="6151" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2739,7 @@
         <xdr:cNvPr id="6153" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2793,7 @@
         <xdr:cNvPr id="6154" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{146FEF65-1060-4169-998D-BB8249CBE3AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146FEF65-1060-4169-998D-BB8249CBE3AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -3747,20 +3750,20 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="92"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -3779,26 +3782,26 @@
     </row>
     <row r="9" spans="1:256" ht="12.95" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="92" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -3817,22 +3820,22 @@
     </row>
     <row r="10" spans="1:256" ht="12.95" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -4043,26 +4046,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -4078,24 +4081,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -4111,24 +4114,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -4356,12 +4359,12 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="99">
+      <c r="F26" s="84">
         <v>45407</v>
       </c>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="23" t="s">
         <v>16</v>
       </c>
@@ -4396,33 +4399,33 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="99">
+      <c r="F27" s="84">
         <v>45408</v>
       </c>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168" t="s">
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
-      <c r="T27" s="169"/>
-      <c r="U27" s="169"/>
-      <c r="V27" s="169"/>
-      <c r="W27" s="169"/>
-      <c r="X27" s="169"/>
-      <c r="Y27" s="169"/>
-      <c r="Z27" s="169"/>
-      <c r="AA27" s="169"/>
-      <c r="AB27" s="170"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="89"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="25" t="s">
         <v>21</v>
@@ -4998,7 +5001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -5016,127 +5019,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -5327,19 +5330,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -5364,17 +5367,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -6007,11 +6010,11 @@
       <c r="N24" s="65"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
-      <c r="R24" s="123">
+      <c r="R24" s="129">
         <v>1234567</v>
       </c>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -6080,11 +6083,11 @@
       <c r="N26" s="65"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
-      <c r="R26" s="123" t="s">
+      <c r="R26" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -6295,11 +6298,11 @@
       <c r="N32" s="65"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
-      <c r="R32" s="123" t="s">
+      <c r="R32" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -6398,17 +6401,17 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="N35" s="124" t="s">
+      <c r="N35" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="O35" s="125"/>
-      <c r="P35" s="126"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="132"/>
       <c r="Q35" s="70"/>
-      <c r="R35" s="130" t="s">
+      <c r="R35" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="S35" s="114"/>
-      <c r="T35" s="115"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="125"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
       <c r="W35" s="45"/>
@@ -6437,13 +6440,13 @@
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="129"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="135"/>
       <c r="Q36" s="70"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="118"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="128"/>
       <c r="U36" s="45"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
@@ -6503,19 +6506,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -6540,17 +6543,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -6667,13 +6670,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J38:T39"/>
-    <mergeCell ref="J5:T6"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="N35:P36"/>
-    <mergeCell ref="R35:T36"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -6683,6 +6679,13 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J38:T39"/>
+    <mergeCell ref="J5:T6"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="R35:T36"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -6716,127 +6719,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -7027,19 +7030,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -7064,17 +7067,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -7512,22 +7515,22 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
       <c r="X19" s="45"/>
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
@@ -7549,20 +7552,20 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
       <c r="X20" s="45"/>
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
@@ -7584,20 +7587,20 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
       <c r="X21" s="45"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
@@ -7619,20 +7622,20 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
@@ -8078,12 +8081,12 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="O35" s="130" t="s">
+      <c r="O35" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -8115,10 +8118,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -8180,19 +8183,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -8217,17 +8220,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -8372,7 +8375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="R32" sqref="R32:T32"/>
     </sheetView>
   </sheetViews>
@@ -8390,127 +8393,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -8732,33 +8735,33 @@
       <c r="C6" s="45"/>
       <c r="D6" s="50"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="151" t="s">
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="152"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="153"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="147"/>
       <c r="AC6" s="51"/>
       <c r="AD6" s="45"/>
       <c r="AE6" s="47"/>
@@ -8771,33 +8774,33 @@
       <c r="C7" s="45"/>
       <c r="D7" s="50"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="151" t="s">
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="152"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="153"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="147"/>
       <c r="AC7" s="51"/>
       <c r="AD7" s="45"/>
       <c r="AE7" s="47"/>
@@ -8810,33 +8813,33 @@
       <c r="C8" s="45"/>
       <c r="D8" s="50"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="150" t="s">
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="108"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="133"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="139"/>
       <c r="AC8" s="51"/>
       <c r="AD8" s="45"/>
       <c r="AE8" s="47"/>
@@ -8849,31 +8852,31 @@
       <c r="C9" s="45"/>
       <c r="D9" s="50"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="154" t="s">
+      <c r="F9" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="153"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="147"/>
       <c r="AC9" s="51"/>
       <c r="AD9" s="45"/>
       <c r="AE9" s="47"/>
@@ -8886,31 +8889,31 @@
       <c r="C10" s="45"/>
       <c r="D10" s="50"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="141" t="s">
+      <c r="F10" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="143"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="153"/>
       <c r="AC10" s="51"/>
       <c r="AD10" s="45"/>
       <c r="AE10" s="45"/>
@@ -8923,31 +8926,31 @@
       <c r="C11" s="45"/>
       <c r="D11" s="50"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="139"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="143"/>
+      <c r="AB11" s="144"/>
       <c r="AC11" s="51"/>
       <c r="AD11" s="45"/>
       <c r="AE11" s="45"/>
@@ -9033,50 +9036,50 @@
       <c r="F14" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="G14" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="138" t="s">
+      <c r="H14" s="143"/>
+      <c r="I14" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="139"/>
-      <c r="K14" s="138" t="s">
+      <c r="J14" s="144"/>
+      <c r="K14" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="139"/>
-      <c r="M14" s="138" t="s">
+      <c r="L14" s="144"/>
+      <c r="M14" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="139"/>
-      <c r="O14" s="138" t="s">
+      <c r="N14" s="144"/>
+      <c r="O14" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="139"/>
+      <c r="P14" s="144"/>
       <c r="Q14" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="141" t="s">
+      <c r="R14" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="S14" s="142"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="141" t="s">
+      <c r="S14" s="152"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="143"/>
-      <c r="W14" s="141" t="s">
+      <c r="V14" s="153"/>
+      <c r="W14" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="141" t="s">
+      <c r="X14" s="153"/>
+      <c r="Y14" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="Z14" s="143"/>
-      <c r="AA14" s="141" t="s">
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="AB14" s="143"/>
+      <c r="AB14" s="153"/>
       <c r="AC14" s="51"/>
       <c r="AD14" s="45"/>
       <c r="AE14" s="47"/>
@@ -9092,46 +9095,46 @@
       <c r="F15" s="74">
         <v>1</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="138" t="s">
+      <c r="H15" s="144"/>
+      <c r="I15" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="139"/>
-      <c r="K15" s="138" t="s">
+      <c r="J15" s="144"/>
+      <c r="K15" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="138" t="s">
+      <c r="L15" s="144"/>
+      <c r="M15" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="139"/>
-      <c r="O15" s="138" t="s">
+      <c r="N15" s="144"/>
+      <c r="O15" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="140"/>
+      <c r="P15" s="143"/>
       <c r="Q15" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R15" s="138" t="s">
+      <c r="R15" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="140"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="138" t="s">
+      <c r="S15" s="143"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V15" s="139"/>
-      <c r="W15" s="136">
+      <c r="V15" s="144"/>
+      <c r="W15" s="161">
         <v>45292</v>
       </c>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="136">
+      <c r="X15" s="162"/>
+      <c r="Y15" s="161">
         <v>45292</v>
       </c>
-      <c r="Z15" s="137"/>
+      <c r="Z15" s="162"/>
       <c r="AA15" s="71" t="s">
         <v>90</v>
       </c>
@@ -9153,46 +9156,46 @@
       <c r="F16" s="74">
         <v>2</v>
       </c>
-      <c r="G16" s="138" t="s">
+      <c r="G16" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="138" t="s">
+      <c r="H16" s="144"/>
+      <c r="I16" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="139"/>
-      <c r="K16" s="138" t="s">
+      <c r="J16" s="144"/>
+      <c r="K16" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="139"/>
-      <c r="M16" s="138" t="s">
+      <c r="L16" s="144"/>
+      <c r="M16" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="N16" s="139"/>
-      <c r="O16" s="138" t="s">
+      <c r="N16" s="144"/>
+      <c r="O16" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="140"/>
+      <c r="P16" s="143"/>
       <c r="Q16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="138" t="s">
+      <c r="R16" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="140"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="138" t="s">
+      <c r="S16" s="143"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V16" s="139"/>
-      <c r="W16" s="136">
+      <c r="V16" s="144"/>
+      <c r="W16" s="161">
         <v>45292</v>
       </c>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="136">
+      <c r="X16" s="162"/>
+      <c r="Y16" s="161">
         <v>45292</v>
       </c>
-      <c r="Z16" s="137"/>
+      <c r="Z16" s="162"/>
       <c r="AA16" s="71" t="s">
         <v>90</v>
       </c>
@@ -9214,46 +9217,46 @@
       <c r="F17" s="74">
         <v>3</v>
       </c>
-      <c r="G17" s="138" t="s">
+      <c r="G17" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="138" t="s">
+      <c r="H17" s="144"/>
+      <c r="I17" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="139"/>
-      <c r="K17" s="138" t="s">
+      <c r="J17" s="144"/>
+      <c r="K17" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="139"/>
-      <c r="M17" s="138" t="s">
+      <c r="L17" s="144"/>
+      <c r="M17" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="N17" s="139"/>
-      <c r="O17" s="138" t="s">
+      <c r="N17" s="144"/>
+      <c r="O17" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="140"/>
+      <c r="P17" s="143"/>
       <c r="Q17" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R17" s="138" t="s">
+      <c r="R17" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S17" s="140"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="138" t="s">
+      <c r="S17" s="143"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V17" s="139"/>
-      <c r="W17" s="136">
+      <c r="V17" s="144"/>
+      <c r="W17" s="161">
         <v>45292</v>
       </c>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="136">
+      <c r="X17" s="162"/>
+      <c r="Y17" s="161">
         <v>45292</v>
       </c>
-      <c r="Z17" s="137"/>
+      <c r="Z17" s="162"/>
       <c r="AA17" s="71" t="s">
         <v>90</v>
       </c>
@@ -9275,46 +9278,46 @@
       <c r="F18" s="74">
         <v>4</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="138" t="s">
+      <c r="H18" s="144"/>
+      <c r="I18" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="138" t="s">
+      <c r="J18" s="144"/>
+      <c r="K18" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="139"/>
-      <c r="M18" s="138" t="s">
+      <c r="L18" s="144"/>
+      <c r="M18" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="139"/>
-      <c r="O18" s="138" t="s">
+      <c r="N18" s="144"/>
+      <c r="O18" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="140"/>
+      <c r="P18" s="143"/>
       <c r="Q18" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="138" t="s">
+      <c r="R18" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="140"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="138" t="s">
+      <c r="S18" s="143"/>
+      <c r="T18" s="144"/>
+      <c r="U18" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V18" s="139"/>
-      <c r="W18" s="136">
+      <c r="V18" s="144"/>
+      <c r="W18" s="161">
         <v>45292</v>
       </c>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="136">
+      <c r="X18" s="162"/>
+      <c r="Y18" s="161">
         <v>45292</v>
       </c>
-      <c r="Z18" s="137"/>
+      <c r="Z18" s="162"/>
       <c r="AA18" s="71" t="s">
         <v>90</v>
       </c>
@@ -9336,46 +9339,46 @@
       <c r="F19" s="74">
         <v>5</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="139"/>
-      <c r="I19" s="138" t="s">
+      <c r="H19" s="144"/>
+      <c r="I19" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="139"/>
-      <c r="K19" s="138" t="s">
+      <c r="J19" s="144"/>
+      <c r="K19" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="L19" s="139"/>
-      <c r="M19" s="138" t="s">
+      <c r="L19" s="144"/>
+      <c r="M19" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="139"/>
-      <c r="O19" s="138" t="s">
+      <c r="N19" s="144"/>
+      <c r="O19" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="140"/>
+      <c r="P19" s="143"/>
       <c r="Q19" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="138" t="s">
+      <c r="R19" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S19" s="140"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="138" t="s">
+      <c r="S19" s="143"/>
+      <c r="T19" s="144"/>
+      <c r="U19" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V19" s="139"/>
-      <c r="W19" s="136">
+      <c r="V19" s="144"/>
+      <c r="W19" s="161">
         <v>45292</v>
       </c>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="136">
+      <c r="X19" s="162"/>
+      <c r="Y19" s="161">
         <v>45292</v>
       </c>
-      <c r="Z19" s="137"/>
+      <c r="Z19" s="162"/>
       <c r="AA19" s="71" t="s">
         <v>90</v>
       </c>
@@ -9397,46 +9400,46 @@
       <c r="F20" s="74">
         <v>6</v>
       </c>
-      <c r="G20" s="138" t="s">
+      <c r="G20" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="139"/>
-      <c r="I20" s="138" t="s">
+      <c r="H20" s="144"/>
+      <c r="I20" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="139"/>
-      <c r="K20" s="138" t="s">
+      <c r="J20" s="144"/>
+      <c r="K20" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="139"/>
-      <c r="M20" s="138" t="s">
+      <c r="L20" s="144"/>
+      <c r="M20" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="139"/>
-      <c r="O20" s="138" t="s">
+      <c r="N20" s="144"/>
+      <c r="O20" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P20" s="140"/>
+      <c r="P20" s="143"/>
       <c r="Q20" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R20" s="138" t="s">
+      <c r="R20" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S20" s="140"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="138" t="s">
+      <c r="S20" s="143"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V20" s="139"/>
-      <c r="W20" s="136">
+      <c r="V20" s="144"/>
+      <c r="W20" s="161">
         <v>45292</v>
       </c>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="136">
+      <c r="X20" s="162"/>
+      <c r="Y20" s="161">
         <v>45292</v>
       </c>
-      <c r="Z20" s="137"/>
+      <c r="Z20" s="162"/>
       <c r="AA20" s="71" t="s">
         <v>90</v>
       </c>
@@ -9458,46 +9461,46 @@
       <c r="F21" s="74">
         <v>7</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="139"/>
-      <c r="I21" s="138" t="s">
+      <c r="H21" s="144"/>
+      <c r="I21" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="139"/>
-      <c r="K21" s="138" t="s">
+      <c r="J21" s="144"/>
+      <c r="K21" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="139"/>
-      <c r="M21" s="138" t="s">
+      <c r="L21" s="144"/>
+      <c r="M21" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="139"/>
-      <c r="O21" s="138" t="s">
+      <c r="N21" s="144"/>
+      <c r="O21" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P21" s="140"/>
+      <c r="P21" s="143"/>
       <c r="Q21" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="138" t="s">
+      <c r="R21" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="140"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="138" t="s">
+      <c r="S21" s="143"/>
+      <c r="T21" s="144"/>
+      <c r="U21" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V21" s="139"/>
-      <c r="W21" s="136">
+      <c r="V21" s="144"/>
+      <c r="W21" s="161">
         <v>45292</v>
       </c>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="136">
+      <c r="X21" s="162"/>
+      <c r="Y21" s="161">
         <v>45292</v>
       </c>
-      <c r="Z21" s="137"/>
+      <c r="Z21" s="162"/>
       <c r="AA21" s="71" t="s">
         <v>90</v>
       </c>
@@ -9519,46 +9522,46 @@
       <c r="F22" s="74">
         <v>8</v>
       </c>
-      <c r="G22" s="138" t="s">
+      <c r="G22" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="139"/>
-      <c r="I22" s="138" t="s">
+      <c r="H22" s="144"/>
+      <c r="I22" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="139"/>
-      <c r="K22" s="138" t="s">
+      <c r="J22" s="144"/>
+      <c r="K22" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="139"/>
-      <c r="M22" s="138" t="s">
+      <c r="L22" s="144"/>
+      <c r="M22" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="139"/>
-      <c r="O22" s="138" t="s">
+      <c r="N22" s="144"/>
+      <c r="O22" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="140"/>
+      <c r="P22" s="143"/>
       <c r="Q22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R22" s="138" t="s">
+      <c r="R22" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S22" s="140"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="138" t="s">
+      <c r="S22" s="143"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V22" s="139"/>
-      <c r="W22" s="136">
+      <c r="V22" s="144"/>
+      <c r="W22" s="161">
         <v>45292</v>
       </c>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="136">
+      <c r="X22" s="162"/>
+      <c r="Y22" s="161">
         <v>45292</v>
       </c>
-      <c r="Z22" s="137"/>
+      <c r="Z22" s="162"/>
       <c r="AA22" s="71" t="s">
         <v>90</v>
       </c>
@@ -9580,46 +9583,46 @@
       <c r="F23" s="74">
         <v>9</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="139"/>
-      <c r="I23" s="138" t="s">
+      <c r="H23" s="144"/>
+      <c r="I23" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="139"/>
-      <c r="K23" s="138" t="s">
+      <c r="J23" s="144"/>
+      <c r="K23" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="L23" s="139"/>
-      <c r="M23" s="138" t="s">
+      <c r="L23" s="144"/>
+      <c r="M23" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="139"/>
-      <c r="O23" s="138" t="s">
+      <c r="N23" s="144"/>
+      <c r="O23" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P23" s="140"/>
+      <c r="P23" s="143"/>
       <c r="Q23" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R23" s="138" t="s">
+      <c r="R23" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S23" s="140"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="138" t="s">
+      <c r="S23" s="143"/>
+      <c r="T23" s="144"/>
+      <c r="U23" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="V23" s="139"/>
-      <c r="W23" s="136">
+      <c r="V23" s="144"/>
+      <c r="W23" s="161">
         <v>45292</v>
       </c>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="136">
+      <c r="X23" s="162"/>
+      <c r="Y23" s="161">
         <v>45292</v>
       </c>
-      <c r="Z23" s="137"/>
+      <c r="Z23" s="162"/>
       <c r="AA23" s="71" t="s">
         <v>90</v>
       </c>
@@ -9641,46 +9644,46 @@
       <c r="F24" s="74">
         <v>10</v>
       </c>
-      <c r="G24" s="138" t="s">
+      <c r="G24" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="139"/>
-      <c r="I24" s="138" t="s">
+      <c r="H24" s="144"/>
+      <c r="I24" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="139"/>
-      <c r="K24" s="138" t="s">
+      <c r="J24" s="144"/>
+      <c r="K24" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="139"/>
-      <c r="M24" s="138" t="s">
+      <c r="L24" s="144"/>
+      <c r="M24" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="139"/>
-      <c r="O24" s="138" t="s">
+      <c r="N24" s="144"/>
+      <c r="O24" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="140"/>
+      <c r="P24" s="143"/>
       <c r="Q24" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="138" t="s">
+      <c r="R24" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S24" s="140"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="138" t="s">
+      <c r="S24" s="143"/>
+      <c r="T24" s="144"/>
+      <c r="U24" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V24" s="139"/>
-      <c r="W24" s="136">
+      <c r="V24" s="144"/>
+      <c r="W24" s="161">
         <v>45292</v>
       </c>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="136">
+      <c r="X24" s="162"/>
+      <c r="Y24" s="161">
         <v>45292</v>
       </c>
-      <c r="Z24" s="137"/>
+      <c r="Z24" s="162"/>
       <c r="AA24" s="71" t="s">
         <v>90</v>
       </c>
@@ -9702,46 +9705,46 @@
       <c r="F25" s="74">
         <v>11</v>
       </c>
-      <c r="G25" s="138" t="s">
+      <c r="G25" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="139"/>
-      <c r="I25" s="138" t="s">
+      <c r="H25" s="144"/>
+      <c r="I25" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="139"/>
-      <c r="K25" s="138" t="s">
+      <c r="J25" s="144"/>
+      <c r="K25" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="139"/>
-      <c r="M25" s="138" t="s">
+      <c r="L25" s="144"/>
+      <c r="M25" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="N25" s="139"/>
-      <c r="O25" s="138" t="s">
+      <c r="N25" s="144"/>
+      <c r="O25" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P25" s="140"/>
+      <c r="P25" s="143"/>
       <c r="Q25" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="R25" s="138" t="s">
+      <c r="R25" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="S25" s="140"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="138" t="s">
+      <c r="S25" s="143"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V25" s="139"/>
-      <c r="W25" s="136">
+      <c r="V25" s="144"/>
+      <c r="W25" s="161">
         <v>45292</v>
       </c>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="136">
+      <c r="X25" s="162"/>
+      <c r="Y25" s="161">
         <v>45292</v>
       </c>
-      <c r="Z25" s="137"/>
+      <c r="Z25" s="162"/>
       <c r="AA25" s="71" t="s">
         <v>90</v>
       </c>
@@ -9763,46 +9766,46 @@
       <c r="F26" s="74">
         <v>12</v>
       </c>
-      <c r="G26" s="138" t="s">
+      <c r="G26" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="138" t="s">
+      <c r="H26" s="144"/>
+      <c r="I26" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="139"/>
-      <c r="K26" s="138" t="s">
+      <c r="J26" s="144"/>
+      <c r="K26" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="L26" s="139"/>
-      <c r="M26" s="138" t="s">
+      <c r="L26" s="144"/>
+      <c r="M26" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="N26" s="139"/>
-      <c r="O26" s="138" t="s">
+      <c r="N26" s="144"/>
+      <c r="O26" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P26" s="140"/>
+      <c r="P26" s="143"/>
       <c r="Q26" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="138" t="s">
+      <c r="R26" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S26" s="140"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="138" t="s">
+      <c r="S26" s="143"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V26" s="139"/>
-      <c r="W26" s="136">
+      <c r="V26" s="144"/>
+      <c r="W26" s="161">
         <v>45292</v>
       </c>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="136">
+      <c r="X26" s="162"/>
+      <c r="Y26" s="161">
         <v>45292</v>
       </c>
-      <c r="Z26" s="137"/>
+      <c r="Z26" s="162"/>
       <c r="AA26" s="71" t="s">
         <v>90</v>
       </c>
@@ -9824,46 +9827,46 @@
       <c r="F27" s="74">
         <v>13</v>
       </c>
-      <c r="G27" s="138" t="s">
+      <c r="G27" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="139"/>
-      <c r="I27" s="138" t="s">
+      <c r="H27" s="144"/>
+      <c r="I27" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="139"/>
-      <c r="K27" s="138" t="s">
+      <c r="J27" s="144"/>
+      <c r="K27" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="139"/>
-      <c r="M27" s="138" t="s">
+      <c r="L27" s="144"/>
+      <c r="M27" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="139"/>
-      <c r="O27" s="138" t="s">
+      <c r="N27" s="144"/>
+      <c r="O27" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="140"/>
+      <c r="P27" s="143"/>
       <c r="Q27" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R27" s="138" t="s">
+      <c r="R27" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S27" s="140"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="138" t="s">
+      <c r="S27" s="143"/>
+      <c r="T27" s="144"/>
+      <c r="U27" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V27" s="139"/>
-      <c r="W27" s="136">
+      <c r="V27" s="144"/>
+      <c r="W27" s="161">
         <v>45292</v>
       </c>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="136">
+      <c r="X27" s="162"/>
+      <c r="Y27" s="161">
         <v>45292</v>
       </c>
-      <c r="Z27" s="137"/>
+      <c r="Z27" s="162"/>
       <c r="AA27" s="71" t="s">
         <v>90</v>
       </c>
@@ -9885,46 +9888,46 @@
       <c r="F28" s="74">
         <v>14</v>
       </c>
-      <c r="G28" s="138" t="s">
+      <c r="G28" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="139"/>
-      <c r="I28" s="138" t="s">
+      <c r="H28" s="144"/>
+      <c r="I28" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="139"/>
-      <c r="K28" s="138" t="s">
+      <c r="J28" s="144"/>
+      <c r="K28" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="139"/>
-      <c r="M28" s="138" t="s">
+      <c r="L28" s="144"/>
+      <c r="M28" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="139"/>
-      <c r="O28" s="138" t="s">
+      <c r="N28" s="144"/>
+      <c r="O28" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P28" s="140"/>
+      <c r="P28" s="143"/>
       <c r="Q28" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="138" t="s">
+      <c r="R28" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S28" s="140"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="138" t="s">
+      <c r="S28" s="143"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V28" s="139"/>
-      <c r="W28" s="136">
+      <c r="V28" s="144"/>
+      <c r="W28" s="161">
         <v>45292</v>
       </c>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="136">
+      <c r="X28" s="162"/>
+      <c r="Y28" s="161">
         <v>45292</v>
       </c>
-      <c r="Z28" s="137"/>
+      <c r="Z28" s="162"/>
       <c r="AA28" s="71" t="s">
         <v>90</v>
       </c>
@@ -9946,46 +9949,46 @@
       <c r="F29" s="74">
         <v>15</v>
       </c>
-      <c r="G29" s="138" t="s">
+      <c r="G29" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="139"/>
-      <c r="I29" s="138" t="s">
+      <c r="H29" s="144"/>
+      <c r="I29" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="139"/>
-      <c r="K29" s="138" t="s">
+      <c r="J29" s="144"/>
+      <c r="K29" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="139"/>
-      <c r="M29" s="138" t="s">
+      <c r="L29" s="144"/>
+      <c r="M29" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="N29" s="139"/>
-      <c r="O29" s="138" t="s">
+      <c r="N29" s="144"/>
+      <c r="O29" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P29" s="140"/>
+      <c r="P29" s="143"/>
       <c r="Q29" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="138" t="s">
+      <c r="R29" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S29" s="140"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="138" t="s">
+      <c r="S29" s="143"/>
+      <c r="T29" s="144"/>
+      <c r="U29" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V29" s="139"/>
-      <c r="W29" s="136">
+      <c r="V29" s="144"/>
+      <c r="W29" s="161">
         <v>45292</v>
       </c>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="136">
+      <c r="X29" s="162"/>
+      <c r="Y29" s="161">
         <v>45292</v>
       </c>
-      <c r="Z29" s="137"/>
+      <c r="Z29" s="162"/>
       <c r="AA29" s="71" t="s">
         <v>90</v>
       </c>
@@ -10007,46 +10010,46 @@
       <c r="F30" s="74">
         <v>16</v>
       </c>
-      <c r="G30" s="138" t="s">
+      <c r="G30" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="138" t="s">
+      <c r="H30" s="144"/>
+      <c r="I30" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="139"/>
-      <c r="K30" s="138" t="s">
+      <c r="J30" s="144"/>
+      <c r="K30" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="139"/>
-      <c r="M30" s="138" t="s">
+      <c r="L30" s="144"/>
+      <c r="M30" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="N30" s="139"/>
-      <c r="O30" s="138" t="s">
+      <c r="N30" s="144"/>
+      <c r="O30" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="140"/>
+      <c r="P30" s="143"/>
       <c r="Q30" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R30" s="138" t="s">
+      <c r="R30" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S30" s="140"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="138" t="s">
+      <c r="S30" s="143"/>
+      <c r="T30" s="144"/>
+      <c r="U30" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V30" s="139"/>
-      <c r="W30" s="136">
+      <c r="V30" s="144"/>
+      <c r="W30" s="161">
         <v>45292</v>
       </c>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="136">
+      <c r="X30" s="162"/>
+      <c r="Y30" s="161">
         <v>45292</v>
       </c>
-      <c r="Z30" s="137"/>
+      <c r="Z30" s="162"/>
       <c r="AA30" s="71" t="s">
         <v>90</v>
       </c>
@@ -10068,46 +10071,46 @@
       <c r="F31" s="74">
         <v>17</v>
       </c>
-      <c r="G31" s="138" t="s">
+      <c r="G31" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="138" t="s">
+      <c r="H31" s="144"/>
+      <c r="I31" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="139"/>
-      <c r="K31" s="138" t="s">
+      <c r="J31" s="144"/>
+      <c r="K31" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="139"/>
-      <c r="M31" s="138" t="s">
+      <c r="L31" s="144"/>
+      <c r="M31" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="N31" s="139"/>
-      <c r="O31" s="138" t="s">
+      <c r="N31" s="144"/>
+      <c r="O31" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P31" s="140"/>
+      <c r="P31" s="143"/>
       <c r="Q31" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R31" s="138" t="s">
+      <c r="R31" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S31" s="140"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="138" t="s">
+      <c r="S31" s="143"/>
+      <c r="T31" s="144"/>
+      <c r="U31" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V31" s="139"/>
-      <c r="W31" s="136">
+      <c r="V31" s="144"/>
+      <c r="W31" s="161">
         <v>45292</v>
       </c>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="136">
+      <c r="X31" s="162"/>
+      <c r="Y31" s="161">
         <v>45292</v>
       </c>
-      <c r="Z31" s="137"/>
+      <c r="Z31" s="162"/>
       <c r="AA31" s="71" t="s">
         <v>90</v>
       </c>
@@ -10129,46 +10132,46 @@
       <c r="F32" s="74">
         <v>18</v>
       </c>
-      <c r="G32" s="138" t="s">
+      <c r="G32" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="138" t="s">
+      <c r="H32" s="144"/>
+      <c r="I32" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="139"/>
-      <c r="K32" s="138" t="s">
+      <c r="J32" s="144"/>
+      <c r="K32" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="139"/>
-      <c r="M32" s="138" t="s">
+      <c r="L32" s="144"/>
+      <c r="M32" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="N32" s="139"/>
-      <c r="O32" s="138" t="s">
+      <c r="N32" s="144"/>
+      <c r="O32" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P32" s="140"/>
+      <c r="P32" s="143"/>
       <c r="Q32" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R32" s="138" t="s">
+      <c r="R32" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S32" s="140"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="138" t="s">
+      <c r="S32" s="143"/>
+      <c r="T32" s="144"/>
+      <c r="U32" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="139"/>
-      <c r="W32" s="136">
+      <c r="V32" s="144"/>
+      <c r="W32" s="161">
         <v>45292</v>
       </c>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="136">
+      <c r="X32" s="162"/>
+      <c r="Y32" s="161">
         <v>45292</v>
       </c>
-      <c r="Z32" s="137"/>
+      <c r="Z32" s="162"/>
       <c r="AA32" s="71" t="s">
         <v>90</v>
       </c>
@@ -10190,46 +10193,46 @@
       <c r="F33" s="74">
         <v>19</v>
       </c>
-      <c r="G33" s="138" t="s">
+      <c r="G33" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="138" t="s">
+      <c r="H33" s="144"/>
+      <c r="I33" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="139"/>
-      <c r="K33" s="138" t="s">
+      <c r="J33" s="144"/>
+      <c r="K33" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="139"/>
-      <c r="M33" s="138" t="s">
+      <c r="L33" s="144"/>
+      <c r="M33" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="N33" s="139"/>
-      <c r="O33" s="138" t="s">
+      <c r="N33" s="144"/>
+      <c r="O33" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P33" s="140"/>
+      <c r="P33" s="143"/>
       <c r="Q33" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R33" s="138" t="s">
+      <c r="R33" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S33" s="140"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="138" t="s">
+      <c r="S33" s="143"/>
+      <c r="T33" s="144"/>
+      <c r="U33" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V33" s="139"/>
-      <c r="W33" s="136">
+      <c r="V33" s="144"/>
+      <c r="W33" s="161">
         <v>45292</v>
       </c>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="136">
+      <c r="X33" s="162"/>
+      <c r="Y33" s="161">
         <v>45292</v>
       </c>
-      <c r="Z33" s="137"/>
+      <c r="Z33" s="162"/>
       <c r="AA33" s="71" t="s">
         <v>90</v>
       </c>
@@ -10251,46 +10254,46 @@
       <c r="F34" s="74">
         <v>20</v>
       </c>
-      <c r="G34" s="138" t="s">
+      <c r="G34" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="138" t="s">
+      <c r="H34" s="144"/>
+      <c r="I34" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="J34" s="139"/>
-      <c r="K34" s="138" t="s">
+      <c r="J34" s="144"/>
+      <c r="K34" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="139"/>
-      <c r="M34" s="138" t="s">
+      <c r="L34" s="144"/>
+      <c r="M34" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="N34" s="139"/>
-      <c r="O34" s="138" t="s">
+      <c r="N34" s="144"/>
+      <c r="O34" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P34" s="140"/>
+      <c r="P34" s="143"/>
       <c r="Q34" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R34" s="138" t="s">
+      <c r="R34" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S34" s="140"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="138" t="s">
+      <c r="S34" s="143"/>
+      <c r="T34" s="144"/>
+      <c r="U34" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V34" s="139"/>
-      <c r="W34" s="136">
+      <c r="V34" s="144"/>
+      <c r="W34" s="161">
         <v>45292</v>
       </c>
-      <c r="X34" s="137"/>
-      <c r="Y34" s="136">
+      <c r="X34" s="162"/>
+      <c r="Y34" s="161">
         <v>45292</v>
       </c>
-      <c r="Z34" s="137"/>
+      <c r="Z34" s="162"/>
       <c r="AA34" s="71" t="s">
         <v>90</v>
       </c>
@@ -10312,46 +10315,46 @@
       <c r="F35" s="74">
         <v>21</v>
       </c>
-      <c r="G35" s="138" t="s">
+      <c r="G35" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="139"/>
-      <c r="I35" s="138" t="s">
+      <c r="H35" s="144"/>
+      <c r="I35" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="139"/>
-      <c r="K35" s="138" t="s">
+      <c r="J35" s="144"/>
+      <c r="K35" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="139"/>
-      <c r="M35" s="138" t="s">
+      <c r="L35" s="144"/>
+      <c r="M35" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="N35" s="139"/>
-      <c r="O35" s="138" t="s">
+      <c r="N35" s="144"/>
+      <c r="O35" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P35" s="140"/>
+      <c r="P35" s="143"/>
       <c r="Q35" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R35" s="138" t="s">
+      <c r="R35" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S35" s="140"/>
-      <c r="T35" s="139"/>
-      <c r="U35" s="138" t="s">
+      <c r="S35" s="143"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V35" s="139"/>
-      <c r="W35" s="136">
+      <c r="V35" s="144"/>
+      <c r="W35" s="161">
         <v>45292</v>
       </c>
-      <c r="X35" s="137"/>
-      <c r="Y35" s="136">
+      <c r="X35" s="162"/>
+      <c r="Y35" s="161">
         <v>45292</v>
       </c>
-      <c r="Z35" s="137"/>
+      <c r="Z35" s="162"/>
       <c r="AA35" s="71" t="s">
         <v>90</v>
       </c>
@@ -10373,46 +10376,46 @@
       <c r="F36" s="74">
         <v>22</v>
       </c>
-      <c r="G36" s="138" t="s">
+      <c r="G36" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="139"/>
-      <c r="I36" s="138" t="s">
+      <c r="H36" s="144"/>
+      <c r="I36" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="139"/>
-      <c r="K36" s="138" t="s">
+      <c r="J36" s="144"/>
+      <c r="K36" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="139"/>
-      <c r="M36" s="138" t="s">
+      <c r="L36" s="144"/>
+      <c r="M36" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="N36" s="139"/>
-      <c r="O36" s="138" t="s">
+      <c r="N36" s="144"/>
+      <c r="O36" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P36" s="140"/>
+      <c r="P36" s="143"/>
       <c r="Q36" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R36" s="138" t="s">
+      <c r="R36" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S36" s="140"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="138" t="s">
+      <c r="S36" s="143"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V36" s="139"/>
-      <c r="W36" s="136">
+      <c r="V36" s="144"/>
+      <c r="W36" s="161">
         <v>45292</v>
       </c>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="136">
+      <c r="X36" s="162"/>
+      <c r="Y36" s="161">
         <v>45292</v>
       </c>
-      <c r="Z36" s="137"/>
+      <c r="Z36" s="162"/>
       <c r="AA36" s="71" t="s">
         <v>90</v>
       </c>
@@ -10434,46 +10437,46 @@
       <c r="F37" s="74">
         <v>23</v>
       </c>
-      <c r="G37" s="138" t="s">
+      <c r="G37" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="139"/>
-      <c r="I37" s="138" t="s">
+      <c r="H37" s="144"/>
+      <c r="I37" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="139"/>
-      <c r="K37" s="138" t="s">
+      <c r="J37" s="144"/>
+      <c r="K37" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="139"/>
-      <c r="M37" s="138" t="s">
+      <c r="L37" s="144"/>
+      <c r="M37" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="139"/>
-      <c r="O37" s="138" t="s">
+      <c r="N37" s="144"/>
+      <c r="O37" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="P37" s="140"/>
+      <c r="P37" s="143"/>
       <c r="Q37" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R37" s="138" t="s">
+      <c r="R37" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="S37" s="140"/>
-      <c r="T37" s="139"/>
-      <c r="U37" s="138" t="s">
+      <c r="S37" s="143"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="V37" s="139"/>
-      <c r="W37" s="136">
+      <c r="V37" s="144"/>
+      <c r="W37" s="161">
         <v>45292</v>
       </c>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="136">
+      <c r="X37" s="162"/>
+      <c r="Y37" s="161">
         <v>45292</v>
       </c>
-      <c r="Z37" s="137"/>
+      <c r="Z37" s="162"/>
       <c r="AA37" s="71" t="s">
         <v>90</v>
       </c>
@@ -10490,34 +10493,34 @@
       <c r="A38" s="37"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="144" t="s">
+      <c r="D38" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="145"/>
-      <c r="Z38" s="145"/>
-      <c r="AA38" s="145"/>
-      <c r="AB38" s="145"/>
-      <c r="AC38" s="146"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="155"/>
+      <c r="T38" s="155"/>
+      <c r="U38" s="155"/>
+      <c r="V38" s="155"/>
+      <c r="W38" s="155"/>
+      <c r="X38" s="155"/>
+      <c r="Y38" s="155"/>
+      <c r="Z38" s="155"/>
+      <c r="AA38" s="155"/>
+      <c r="AB38" s="155"/>
+      <c r="AC38" s="156"/>
       <c r="AD38" s="72"/>
       <c r="AE38" s="47"/>
       <c r="AF38" s="47"/>
@@ -10527,32 +10530,32 @@
       <c r="A39" s="37"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="148"/>
-      <c r="U39" s="148"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="149"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="158"/>
+      <c r="L39" s="158"/>
+      <c r="M39" s="158"/>
+      <c r="N39" s="158"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="158"/>
+      <c r="Q39" s="158"/>
+      <c r="R39" s="158"/>
+      <c r="S39" s="158"/>
+      <c r="T39" s="158"/>
+      <c r="U39" s="158"/>
+      <c r="V39" s="158"/>
+      <c r="W39" s="158"/>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="158"/>
+      <c r="Z39" s="158"/>
+      <c r="AA39" s="158"/>
+      <c r="AB39" s="158"/>
+      <c r="AC39" s="159"/>
       <c r="AD39" s="72"/>
       <c r="AE39" s="47"/>
       <c r="AF39" s="47"/>
@@ -10660,26 +10663,207 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
     <mergeCell ref="F10:AB10"/>
     <mergeCell ref="F11:AB11"/>
     <mergeCell ref="D38:AC39"/>
@@ -10704,207 +10888,26 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -10938,127 +10941,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -11249,19 +11252,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -11286,17 +11289,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -12262,12 +12265,12 @@
       <c r="J35" s="45"/>
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
-      <c r="O35" s="113" t="s">
+      <c r="O35" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -12299,10 +12302,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -12364,19 +12367,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -12401,17 +12404,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -12555,7 +12558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -12573,127 +12576,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -12884,19 +12887,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -12921,17 +12924,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -12969,15 +12972,15 @@
       <c r="R7" s="59"/>
       <c r="S7" s="59"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="160" t="s">
+      <c r="U7" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="162"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="168"/>
       <c r="AB7" s="47"/>
       <c r="AC7" s="45"/>
       <c r="AD7" s="45"/>
@@ -13006,13 +13009,13 @@
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="51"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="165"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="171"/>
       <c r="AB8" s="47"/>
       <c r="AC8" s="45"/>
       <c r="AD8" s="45"/>
@@ -13036,13 +13039,13 @@
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="T9" s="81"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="165"/>
+      <c r="U9" s="169"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="171"/>
       <c r="AB9" s="47"/>
       <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
@@ -13071,13 +13074,13 @@
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="165"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="171"/>
       <c r="AB10" s="47"/>
       <c r="AC10" s="45"/>
       <c r="AD10" s="45"/>
@@ -13106,13 +13109,13 @@
       <c r="R11" s="45"/>
       <c r="S11" s="45"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="165"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="171"/>
       <c r="AB11" s="47"/>
       <c r="AC11" s="45"/>
       <c r="AD11" s="45"/>
@@ -13141,13 +13144,13 @@
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
       <c r="T12" s="51"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="165"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="170"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="171"/>
       <c r="AB12" s="47"/>
       <c r="AC12" s="45"/>
       <c r="AD12" s="45"/>
@@ -13176,13 +13179,13 @@
       <c r="R13" s="45"/>
       <c r="S13" s="45"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="165"/>
+      <c r="U13" s="169"/>
+      <c r="V13" s="170"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="170"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="171"/>
       <c r="AB13" s="47"/>
       <c r="AC13" s="45"/>
       <c r="AD13" s="45"/>
@@ -13211,13 +13214,13 @@
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="164"/>
-      <c r="AA14" s="165"/>
+      <c r="U14" s="169"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="171"/>
       <c r="AB14" s="47"/>
       <c r="AC14" s="45"/>
       <c r="AD14" s="45"/>
@@ -13246,13 +13249,13 @@
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="51"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="164"/>
-      <c r="AA15" s="165"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="170"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="171"/>
       <c r="AB15" s="47"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="45"/>
@@ -13281,13 +13284,13 @@
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="51"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="165"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="171"/>
       <c r="AB16" s="47"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="45"/>
@@ -13316,13 +13319,13 @@
       <c r="R17" s="45"/>
       <c r="S17" s="45"/>
       <c r="T17" s="51"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="165"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="170"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="171"/>
       <c r="AB17" s="47"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="45"/>
@@ -13351,13 +13354,13 @@
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
       <c r="T18" s="51"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="165"/>
+      <c r="U18" s="169"/>
+      <c r="V18" s="170"/>
+      <c r="W18" s="170"/>
+      <c r="X18" s="170"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="171"/>
       <c r="AB18" s="47"/>
       <c r="AC18" s="45"/>
       <c r="AD18" s="45"/>
@@ -13386,13 +13389,13 @@
       <c r="R19" s="80"/>
       <c r="S19" s="80"/>
       <c r="T19" s="82"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="165"/>
+      <c r="U19" s="169"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="171"/>
       <c r="AB19" s="47"/>
       <c r="AC19" s="45"/>
       <c r="AD19" s="45"/>
@@ -13421,13 +13424,13 @@
       <c r="R20" s="80"/>
       <c r="S20" s="80"/>
       <c r="T20" s="82"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="165"/>
+      <c r="U20" s="169"/>
+      <c r="V20" s="170"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="170"/>
+      <c r="Y20" s="170"/>
+      <c r="Z20" s="170"/>
+      <c r="AA20" s="171"/>
       <c r="AB20" s="47"/>
       <c r="AC20" s="45"/>
       <c r="AD20" s="45"/>
@@ -13546,23 +13549,23 @@
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="144" t="s">
+      <c r="F24" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="145"/>
-      <c r="T24" s="146"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="156"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -13583,21 +13586,21 @@
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="159"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="165"/>
       <c r="U25" s="45"/>
       <c r="V25" s="45"/>
       <c r="W25" s="45"/>
@@ -13618,21 +13621,21 @@
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="159"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="165"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -13653,21 +13656,21 @@
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="159"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="45"/>
       <c r="V27" s="45"/>
       <c r="W27" s="45"/>
@@ -13688,21 +13691,21 @@
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="159"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="165"/>
       <c r="U28" s="45"/>
       <c r="V28" s="45"/>
       <c r="W28" s="45"/>
@@ -13723,21 +13726,21 @@
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="159"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="165"/>
       <c r="U29" s="45"/>
       <c r="V29" s="45"/>
       <c r="W29" s="45"/>
@@ -13758,21 +13761,21 @@
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="159"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="165"/>
       <c r="U30" s="45"/>
       <c r="V30" s="65"/>
       <c r="W30" s="45"/>
@@ -13793,21 +13796,21 @@
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="159"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="165"/>
       <c r="U31" s="45"/>
       <c r="V31" s="45"/>
       <c r="W31" s="45"/>
@@ -13828,21 +13831,21 @@
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="159"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="165"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -13863,21 +13866,21 @@
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="159"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="165"/>
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
       <c r="W33" s="45"/>
@@ -13898,21 +13901,21 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="158"/>
-      <c r="S34" s="158"/>
-      <c r="T34" s="159"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="165"/>
       <c r="U34" s="45"/>
       <c r="V34" s="45"/>
       <c r="W34" s="45"/>
@@ -13933,21 +13936,21 @@
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="159"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="165"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
       <c r="W35" s="45"/>
@@ -13968,21 +13971,21 @@
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="158"/>
-      <c r="R36" s="158"/>
-      <c r="S36" s="158"/>
-      <c r="T36" s="159"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="164"/>
+      <c r="T36" s="165"/>
       <c r="U36" s="45"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
@@ -14003,21 +14006,21 @@
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="148"/>
-      <c r="Q37" s="148"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="148"/>
-      <c r="T37" s="149"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="158"/>
+      <c r="S37" s="158"/>
+      <c r="T37" s="159"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
       <c r="W37" s="45"/>
@@ -14042,19 +14045,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -14079,17 +14082,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -14249,125 +14252,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="103" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="106" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="103" t="s">
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="105"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="103" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="103" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="105"/>
+      <c r="AG3" s="111"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -15925,127 +15928,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -16236,19 +16239,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -16273,17 +16276,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -16918,11 +16921,11 @@
       <c r="N24" s="65"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
-      <c r="R24" s="110">
+      <c r="R24" s="120">
         <v>1234567</v>
       </c>
-      <c r="S24" s="111"/>
-      <c r="T24" s="112"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="122"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -16991,11 +16994,11 @@
       <c r="N26" s="65"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
-      <c r="R26" s="110" t="s">
+      <c r="R26" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="S26" s="111"/>
-      <c r="T26" s="112"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="122"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -17206,11 +17209,11 @@
       <c r="N32" s="65"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
-      <c r="R32" s="110" t="s">
+      <c r="R32" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="S32" s="111"/>
-      <c r="T32" s="112"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="122"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -17309,12 +17312,12 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="O35" s="113" t="s">
+      <c r="O35" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -17346,10 +17349,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -17411,19 +17414,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -17448,17 +17451,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -17575,6 +17578,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J5:T6"/>
+    <mergeCell ref="J38:T39"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="O35:R36"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
@@ -17584,12 +17593,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="J5:T6"/>
-    <mergeCell ref="J38:T39"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="O35:R36"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -17605,7 +17608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
@@ -17623,127 +17626,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -17934,19 +17937,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -17971,17 +17974,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -18616,11 +18619,11 @@
       <c r="N24" s="65"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
-      <c r="R24" s="123">
+      <c r="R24" s="129">
         <v>1234567</v>
       </c>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -18689,11 +18692,11 @@
       <c r="N26" s="65"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
-      <c r="R26" s="123" t="s">
+      <c r="R26" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -18904,11 +18907,11 @@
       <c r="N32" s="65"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
-      <c r="R32" s="123" t="s">
+      <c r="R32" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -19007,17 +19010,17 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="N35" s="124" t="s">
+      <c r="N35" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="O35" s="125"/>
-      <c r="P35" s="126"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="132"/>
       <c r="Q35" s="70"/>
-      <c r="R35" s="130" t="s">
+      <c r="R35" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="S35" s="114"/>
-      <c r="T35" s="115"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="125"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
       <c r="W35" s="45"/>
@@ -19046,13 +19049,13 @@
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="129"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="135"/>
       <c r="Q36" s="70"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="118"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="128"/>
       <c r="U36" s="45"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
@@ -19112,19 +19115,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -19149,17 +19152,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -19276,13 +19279,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J5:T6"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="J38:T39"/>
-    <mergeCell ref="N35:P36"/>
-    <mergeCell ref="R35:T36"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -19292,6 +19288,13 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J5:T6"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="J38:T39"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="R35:T36"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -19307,7 +19310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -19325,127 +19328,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -19636,19 +19639,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -19673,17 +19676,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -20121,22 +20124,22 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
       <c r="X19" s="45"/>
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
@@ -20158,20 +20161,20 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
       <c r="X20" s="45"/>
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
@@ -20193,20 +20196,20 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
       <c r="X21" s="45"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
@@ -20228,20 +20231,20 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
@@ -20687,12 +20690,12 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="O35" s="130" t="s">
+      <c r="O35" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -20724,10 +20727,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -20789,19 +20792,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -20826,17 +20829,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -20981,8 +20984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20999,127 +21002,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -21310,19 +21313,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -21347,17 +21350,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -21842,13 +21845,16 @@
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
       <c r="M20" s="65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N20" s="65"/>
+      <c r="Q20" s="65"/>
       <c r="R20" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" s="65"/>
+        <v>38</v>
+      </c>
+      <c r="S20" s="65" t="s">
+        <v>39</v>
+      </c>
       <c r="T20" s="65"/>
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
@@ -21913,17 +21919,16 @@
       <c r="K22" s="65"/>
       <c r="L22" s="65"/>
       <c r="M22" s="65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N22" s="65"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="65"/>
-      <c r="R22" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="S22" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="65"/>
+      <c r="R22" s="129">
+        <v>1234567</v>
+      </c>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
       <c r="U22" s="45"/>
       <c r="V22" s="45"/>
       <c r="W22" s="45"/>
@@ -21987,16 +21992,16 @@
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
       <c r="M24" s="65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N24" s="65"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
-      <c r="R24" s="123">
-        <v>1234567</v>
-      </c>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
+      <c r="R24" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -22060,16 +22065,14 @@
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
       <c r="M26" s="65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
+      <c r="R26" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -22133,15 +22136,15 @@
       <c r="K28" s="65"/>
       <c r="L28" s="65"/>
       <c r="M28" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N28" s="65"/>
       <c r="R28" s="65" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="45"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
       <c r="V28" s="45"/>
       <c r="W28" s="45"/>
       <c r="X28" s="45"/>
@@ -22204,15 +22207,17 @@
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
       <c r="M30" s="65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30" s="65"/>
-      <c r="R30" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="65"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="45"/>
       <c r="V30" s="65"/>
       <c r="W30" s="45"/>
       <c r="X30" s="45"/>
@@ -22239,15 +22244,6 @@
       <c r="J31" s="45"/>
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="45"/>
       <c r="V31" s="45"/>
       <c r="W31" s="45"/>
       <c r="X31" s="45"/>
@@ -22274,18 +22270,6 @@
       <c r="J32" s="45"/>
       <c r="K32" s="65"/>
       <c r="L32" s="65"/>
-      <c r="M32" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
       <c r="X32" s="45"/>
@@ -22383,12 +22367,12 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="O35" s="113" t="s">
+      <c r="O35" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -22420,10 +22404,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -22485,19 +22469,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -22522,17 +22506,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -22648,7 +22632,7 @@
       <c r="C44" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="J38:T39"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
@@ -22660,10 +22644,9 @@
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="J5:T6"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R30:T30"/>
     <mergeCell ref="O35:R36"/>
+    <mergeCell ref="R22:T22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -22679,7 +22662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -22697,127 +22680,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -23008,19 +22991,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -23045,17 +23028,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -23493,22 +23476,22 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
       <c r="X19" s="45"/>
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
@@ -23530,20 +23513,20 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
       <c r="X20" s="45"/>
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
@@ -23565,20 +23548,20 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
       <c r="X21" s="45"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
@@ -23600,20 +23583,20 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
@@ -24058,18 +24041,18 @@
       <c r="J35" s="45"/>
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
-      <c r="M35" s="132" t="s">
+      <c r="M35" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="N35" s="108"/>
-      <c r="O35" s="133"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="139"/>
       <c r="P35" s="65"/>
       <c r="Q35" s="65"/>
-      <c r="R35" s="132" t="s">
+      <c r="R35" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="S35" s="108"/>
-      <c r="T35" s="133"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="139"/>
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
       <c r="W35" s="45"/>
@@ -24097,14 +24080,14 @@
       <c r="J36" s="45"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="135"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="141"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="65"/>
-      <c r="R36" s="134"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="135"/>
+      <c r="R36" s="140"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="141"/>
       <c r="U36" s="45"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
@@ -24164,19 +24147,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -24201,17 +24184,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -24328,11 +24311,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J5:T6"/>
-    <mergeCell ref="J19:W22"/>
-    <mergeCell ref="J38:T39"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="R35:T36"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -24342,6 +24320,11 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="J5:T6"/>
+    <mergeCell ref="J19:W22"/>
+    <mergeCell ref="J38:T39"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="R35:T36"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -24357,7 +24340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
@@ -24375,127 +24358,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -24686,19 +24669,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -24723,17 +24706,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -25171,22 +25154,22 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
       <c r="X19" s="45"/>
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
@@ -25208,20 +25191,20 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
       <c r="X20" s="45"/>
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
@@ -25243,20 +25226,20 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
       <c r="X21" s="45"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
@@ -25278,20 +25261,20 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
@@ -25737,12 +25720,12 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="O35" s="130" t="s">
+      <c r="O35" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -25774,10 +25757,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -25839,19 +25822,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -25876,17 +25859,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
@@ -26032,7 +26015,7 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -26049,127 +26032,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="120" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="120" t="s">
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="122"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="120" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="120" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="122"/>
+      <c r="AG3" s="117"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -26360,19 +26343,19 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="59"/>
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
@@ -26397,17 +26380,17 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -27042,11 +27025,11 @@
       <c r="N24" s="65"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
-      <c r="R24" s="110">
+      <c r="R24" s="120">
         <v>1234567</v>
       </c>
-      <c r="S24" s="111"/>
-      <c r="T24" s="112"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="122"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -27115,11 +27098,11 @@
       <c r="N26" s="65"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
-      <c r="R26" s="110" t="s">
+      <c r="R26" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="S26" s="111"/>
-      <c r="T26" s="112"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="122"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -27330,11 +27313,11 @@
       <c r="N32" s="65"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
-      <c r="R32" s="110" t="s">
+      <c r="R32" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="S32" s="111"/>
-      <c r="T32" s="112"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="122"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -27433,12 +27416,12 @@
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
-      <c r="O35" s="113" t="s">
+      <c r="O35" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="115"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="125"/>
       <c r="S35" s="65"/>
       <c r="T35" s="65"/>
       <c r="U35" s="45"/>
@@ -27470,10 +27453,10 @@
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="45"/>
@@ -27535,19 +27518,19 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -27572,17 +27555,17 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
